--- a/INTLINE/data/144/SCB/NR0103ENS2010T12Kv.xlsx
+++ b/INTLINE/data/144/SCB/NR0103ENS2010T12Kv.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
-  <x:si>
-    <x:t>GDP: production approach (ESA2010), working day adjusted, constant prices reference year 2020, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+  <x:si>
+    <x:t>GDP: production approach (ESA2010), working day adjusted, constant prices reference year 2021, SEK million by industrial classification NACE Rev. 2 and quarter</x:t>
   </x:si>
   <x:si>
     <x:t>1980K1</x:t>
@@ -523,6 +523,9 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
     <x:t>GDP at market prices</x:t>
   </x:si>
   <x:si>
@@ -541,7 +544,7 @@
     <x:t>Latest update:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220228 08:00</x:t>
+    <x:t>20220530 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -562,7 +565,7 @@
     <x:t>nrinfo@scb.se</x:t>
   </x:si>
   <x:si>
-    <x:t>(SCB) Statistikservice, Statistics Sweden</x:t>
+    <x:t xml:space="preserve"> Statistikservice, Statistics Sweden</x:t>
   </x:si>
   <x:si>
     <x:t>information@scb.se</x:t>
@@ -1001,21 +1004,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FM48"/>
+  <x:dimension ref="A1:FN48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="169" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="170" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:169">
+    <x:row r="1" spans="1:170">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:169">
+    <x:row r="3" spans="1:170">
       <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1520,656 +1523,662 @@
       <x:c r="FM3" s="2" t="s">
         <x:v>168</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:169">
+      <x:c r="FN3" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:170">
       <x:c r="A4" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F4" s="4" t="n">
-        <x:v>547651</x:v>
+        <x:v>566287</x:v>
       </x:c>
       <x:c r="G4" s="4" t="n">
-        <x:v>563326</x:v>
+        <x:v>582495</x:v>
       </x:c>
       <x:c r="H4" s="4" t="n">
-        <x:v>511997</x:v>
+        <x:v>529420</x:v>
       </x:c>
       <x:c r="I4" s="4" t="n">
-        <x:v>584227</x:v>
+        <x:v>604107</x:v>
       </x:c>
       <x:c r="J4" s="4" t="n">
-        <x:v>560336</x:v>
+        <x:v>579404</x:v>
       </x:c>
       <x:c r="K4" s="4" t="n">
-        <x:v>573124</x:v>
+        <x:v>592626</x:v>
       </x:c>
       <x:c r="L4" s="4" t="n">
-        <x:v>509929</x:v>
+        <x:v>527281</x:v>
       </x:c>
       <x:c r="M4" s="4" t="n">
-        <x:v>591392</x:v>
+        <x:v>611516</x:v>
       </x:c>
       <x:c r="N4" s="4" t="n">
-        <x:v>564100</x:v>
+        <x:v>583296</x:v>
       </x:c>
       <x:c r="O4" s="4" t="n">
-        <x:v>577940</x:v>
+        <x:v>597607</x:v>
       </x:c>
       <x:c r="P4" s="4" t="n">
-        <x:v>525328</x:v>
+        <x:v>543205</x:v>
       </x:c>
       <x:c r="Q4" s="4" t="n">
-        <x:v>611814</x:v>
+        <x:v>632633</x:v>
       </x:c>
       <x:c r="R4" s="4" t="n">
-        <x:v>603276</x:v>
+        <x:v>623805</x:v>
       </x:c>
       <x:c r="S4" s="4" t="n">
-        <x:v>606412</x:v>
+        <x:v>627048</x:v>
       </x:c>
       <x:c r="T4" s="4" t="n">
-        <x:v>543246</x:v>
+        <x:v>561732</x:v>
       </x:c>
       <x:c r="U4" s="4" t="n">
-        <x:v>630336</x:v>
+        <x:v>651785</x:v>
       </x:c>
       <x:c r="V4" s="4" t="n">
-        <x:v>601567</x:v>
+        <x:v>622038</x:v>
       </x:c>
       <x:c r="W4" s="4" t="n">
-        <x:v>621972</x:v>
+        <x:v>643137</x:v>
       </x:c>
       <x:c r="X4" s="4" t="n">
-        <x:v>566162</x:v>
+        <x:v>585428</x:v>
       </x:c>
       <x:c r="Y4" s="4" t="n">
-        <x:v>649255</x:v>
+        <x:v>671348</x:v>
       </x:c>
       <x:c r="Z4" s="4" t="n">
-        <x:v>634752</x:v>
+        <x:v>656352</x:v>
       </x:c>
       <x:c r="AA4" s="4" t="n">
-        <x:v>638705</x:v>
+        <x:v>660439</x:v>
       </x:c>
       <x:c r="AB4" s="4" t="n">
-        <x:v>578599</x:v>
+        <x:v>598288</x:v>
       </x:c>
       <x:c r="AC4" s="4" t="n">
-        <x:v>660977</x:v>
+        <x:v>683469</x:v>
       </x:c>
       <x:c r="AD4" s="4" t="n">
-        <x:v>646690</x:v>
+        <x:v>668696</x:v>
       </x:c>
       <x:c r="AE4" s="4" t="n">
-        <x:v>659829</x:v>
+        <x:v>682283</x:v>
       </x:c>
       <x:c r="AF4" s="4" t="n">
-        <x:v>601671</x:v>
+        <x:v>622145</x:v>
       </x:c>
       <x:c r="AG4" s="4" t="n">
-        <x:v>686037</x:v>
+        <x:v>709382</x:v>
       </x:c>
       <x:c r="AH4" s="4" t="n">
-        <x:v>673327</x:v>
+        <x:v>696239</x:v>
       </x:c>
       <x:c r="AI4" s="4" t="n">
-        <x:v>676950</x:v>
+        <x:v>699985</x:v>
       </x:c>
       <x:c r="AJ4" s="4" t="n">
-        <x:v>607725</x:v>
+        <x:v>628405</x:v>
       </x:c>
       <x:c r="AK4" s="4" t="n">
-        <x:v>694566</x:v>
+        <x:v>718201</x:v>
       </x:c>
       <x:c r="AL4" s="4" t="n">
-        <x:v>688776</x:v>
+        <x:v>712214</x:v>
       </x:c>
       <x:c r="AM4" s="4" t="n">
-        <x:v>696389</x:v>
+        <x:v>720087</x:v>
       </x:c>
       <x:c r="AN4" s="4" t="n">
-        <x:v>628111</x:v>
+        <x:v>649485</x:v>
       </x:c>
       <x:c r="AO4" s="4" t="n">
-        <x:v>713293</x:v>
+        <x:v>737565</x:v>
       </x:c>
       <x:c r="AP4" s="4" t="n">
-        <x:v>693986</x:v>
+        <x:v>717601</x:v>
       </x:c>
       <x:c r="AQ4" s="4" t="n">
-        <x:v>708792</x:v>
+        <x:v>732911</x:v>
       </x:c>
       <x:c r="AR4" s="4" t="n">
-        <x:v>630060</x:v>
+        <x:v>651500</x:v>
       </x:c>
       <x:c r="AS4" s="4" t="n">
-        <x:v>716416</x:v>
+        <x:v>740795</x:v>
       </x:c>
       <x:c r="AT4" s="4" t="n">
-        <x:v>692025</x:v>
+        <x:v>715574</x:v>
       </x:c>
       <x:c r="AU4" s="4" t="n">
-        <x:v>691449</x:v>
+        <x:v>714978</x:v>
       </x:c>
       <x:c r="AV4" s="4" t="n">
-        <x:v>627387</x:v>
+        <x:v>648736</x:v>
       </x:c>
       <x:c r="AW4" s="4" t="n">
-        <x:v>708171</x:v>
+        <x:v>732269</x:v>
       </x:c>
       <x:c r="AX4" s="4" t="n">
-        <x:v>694823</x:v>
+        <x:v>718468</x:v>
       </x:c>
       <x:c r="AY4" s="4" t="n">
-        <x:v>687696</x:v>
+        <x:v>711098</x:v>
       </x:c>
       <x:c r="AZ4" s="4" t="n">
-        <x:v>631742</x:v>
+        <x:v>653240</x:v>
       </x:c>
       <x:c r="BA4" s="4" t="n">
-        <x:v>677493</x:v>
+        <x:v>700547</x:v>
       </x:c>
       <x:c r="BB4" s="4" t="n">
-        <x:v>653792</x:v>
+        <x:v>675115</x:v>
       </x:c>
       <x:c r="BC4" s="4" t="n">
-        <x:v>673269</x:v>
+        <x:v>695178</x:v>
       </x:c>
       <x:c r="BD4" s="4" t="n">
-        <x:v>614212</x:v>
+        <x:v>634186</x:v>
       </x:c>
       <x:c r="BE4" s="4" t="n">
-        <x:v>702037</x:v>
+        <x:v>724813</x:v>
       </x:c>
       <x:c r="BF4" s="4" t="n">
-        <x:v>678238</x:v>
+        <x:v>700288</x:v>
       </x:c>
       <x:c r="BG4" s="4" t="n">
-        <x:v>695757</x:v>
+        <x:v>718398</x:v>
       </x:c>
       <x:c r="BH4" s="4" t="n">
-        <x:v>632732</x:v>
+        <x:v>653309</x:v>
       </x:c>
       <x:c r="BI4" s="4" t="n">
-        <x:v>737583</x:v>
+        <x:v>761510</x:v>
       </x:c>
       <x:c r="BJ4" s="4" t="n">
-        <x:v>713279</x:v>
+        <x:v>736395</x:v>
       </x:c>
       <x:c r="BK4" s="4" t="n">
-        <x:v>726832</x:v>
+        <x:v>750560</x:v>
       </x:c>
       <x:c r="BL4" s="4" t="n">
-        <x:v>655679</x:v>
+        <x:v>677071</x:v>
       </x:c>
       <x:c r="BM4" s="4" t="n">
-        <x:v>762545</x:v>
+        <x:v>787352</x:v>
       </x:c>
       <x:c r="BN4" s="4" t="n">
-        <x:v>732119</x:v>
+        <x:v>755846</x:v>
       </x:c>
       <x:c r="BO4" s="4" t="n">
-        <x:v>737290</x:v>
+        <x:v>761360</x:v>
       </x:c>
       <x:c r="BP4" s="4" t="n">
-        <x:v>664115</x:v>
+        <x:v>685713</x:v>
       </x:c>
       <x:c r="BQ4" s="4" t="n">
-        <x:v>770486</x:v>
+        <x:v>795638</x:v>
       </x:c>
       <x:c r="BR4" s="4" t="n">
-        <x:v>739508</x:v>
+        <x:v>763772</x:v>
       </x:c>
       <x:c r="BS4" s="4" t="n">
-        <x:v>762661</x:v>
+        <x:v>787402</x:v>
       </x:c>
       <x:c r="BT4" s="4" t="n">
-        <x:v>688213</x:v>
+        <x:v>710595</x:v>
       </x:c>
       <x:c r="BU4" s="4" t="n">
-        <x:v>808768</x:v>
+        <x:v>835171</x:v>
       </x:c>
       <x:c r="BV4" s="4" t="n">
-        <x:v>770713</x:v>
+        <x:v>795849</x:v>
       </x:c>
       <x:c r="BW4" s="4" t="n">
-        <x:v>798923</x:v>
+        <x:v>825004</x:v>
       </x:c>
       <x:c r="BX4" s="4" t="n">
-        <x:v>719275</x:v>
+        <x:v>742667</x:v>
       </x:c>
       <x:c r="BY4" s="4" t="n">
-        <x:v>836395</x:v>
+        <x:v>863606</x:v>
       </x:c>
       <x:c r="BZ4" s="4" t="n">
-        <x:v>801886</x:v>
+        <x:v>828039</x:v>
       </x:c>
       <x:c r="CA4" s="4" t="n">
-        <x:v>828101</x:v>
+        <x:v>855049</x:v>
       </x:c>
       <x:c r="CB4" s="4" t="n">
-        <x:v>748170</x:v>
+        <x:v>772501</x:v>
       </x:c>
       <x:c r="CC4" s="4" t="n">
-        <x:v>872602</x:v>
+        <x:v>900909</x:v>
       </x:c>
       <x:c r="CD4" s="4" t="n">
-        <x:v>832577</x:v>
+        <x:v>859559</x:v>
       </x:c>
       <x:c r="CE4" s="4" t="n">
-        <x:v>877975</x:v>
+        <x:v>906637</x:v>
       </x:c>
       <x:c r="CF4" s="4" t="n">
-        <x:v>795377</x:v>
+        <x:v>821326</x:v>
       </x:c>
       <x:c r="CG4" s="4" t="n">
-        <x:v>903629</x:v>
+        <x:v>933025</x:v>
       </x:c>
       <x:c r="CH4" s="4" t="n">
-        <x:v>859952</x:v>
+        <x:v>887823</x:v>
       </x:c>
       <x:c r="CI4" s="4" t="n">
-        <x:v>885042</x:v>
+        <x:v>913934</x:v>
       </x:c>
       <x:c r="CJ4" s="4" t="n">
-        <x:v>800795</x:v>
+        <x:v>826921</x:v>
       </x:c>
       <x:c r="CK4" s="4" t="n">
-        <x:v>916901</x:v>
+        <x:v>946834</x:v>
       </x:c>
       <x:c r="CL4" s="4" t="n">
-        <x:v>869616</x:v>
+        <x:v>897979</x:v>
       </x:c>
       <x:c r="CM4" s="4" t="n">
-        <x:v>908082</x:v>
+        <x:v>937633</x:v>
       </x:c>
       <x:c r="CN4" s="4" t="n">
-        <x:v>825591</x:v>
+        <x:v>852440</x:v>
       </x:c>
       <x:c r="CO4" s="4" t="n">
-        <x:v>935511</x:v>
+        <x:v>966051</x:v>
       </x:c>
       <x:c r="CP4" s="4" t="n">
-        <x:v>901179</x:v>
+        <x:v>930570</x:v>
       </x:c>
       <x:c r="CQ4" s="4" t="n">
-        <x:v>919375</x:v>
+        <x:v>949388</x:v>
       </x:c>
       <x:c r="CR4" s="4" t="n">
-        <x:v>844805</x:v>
+        <x:v>872280</x:v>
       </x:c>
       <x:c r="CS4" s="4" t="n">
-        <x:v>959276</x:v>
+        <x:v>990592</x:v>
       </x:c>
       <x:c r="CT4" s="4" t="n">
-        <x:v>931507</x:v>
+        <x:v>961791</x:v>
       </x:c>
       <x:c r="CU4" s="4" t="n">
-        <x:v>960191</x:v>
+        <x:v>991438</x:v>
       </x:c>
       <x:c r="CV4" s="4" t="n">
-        <x:v>877321</x:v>
+        <x:v>905853</x:v>
       </x:c>
       <x:c r="CW4" s="4" t="n">
-        <x:v>996336</x:v>
+        <x:v>1028656</x:v>
       </x:c>
       <x:c r="CX4" s="4" t="n">
-        <x:v>953072</x:v>
+        <x:v>984245</x:v>
       </x:c>
       <x:c r="CY4" s="4" t="n">
-        <x:v>987690</x:v>
+        <x:v>1019629</x:v>
       </x:c>
       <x:c r="CZ4" s="4" t="n">
-        <x:v>906090</x:v>
+        <x:v>935558</x:v>
       </x:c>
       <x:c r="DA4" s="4" t="n">
-        <x:v>1025696</x:v>
+        <x:v>1058970</x:v>
       </x:c>
       <x:c r="DB4" s="4" t="n">
-        <x:v>991023</x:v>
+        <x:v>1023141</x:v>
       </x:c>
       <x:c r="DC4" s="4" t="n">
-        <x:v>1039596</x:v>
+        <x:v>1073534</x:v>
       </x:c>
       <x:c r="DD4" s="4" t="n">
-        <x:v>953362</x:v>
+        <x:v>984464</x:v>
       </x:c>
       <x:c r="DE4" s="4" t="n">
-        <x:v>1078338</x:v>
+        <x:v>1113419</x:v>
       </x:c>
       <x:c r="DF4" s="4" t="n">
-        <x:v>1034174</x:v>
+        <x:v>1067690</x:v>
       </x:c>
       <x:c r="DG4" s="4" t="n">
-        <x:v>1075281</x:v>
+        <x:v>1110384</x:v>
       </x:c>
       <x:c r="DH4" s="4" t="n">
-        <x:v>981613</x:v>
+        <x:v>1013639</x:v>
       </x:c>
       <x:c r="DI4" s="4" t="n">
-        <x:v>1115569</x:v>
+        <x:v>1151988</x:v>
       </x:c>
       <x:c r="DJ4" s="4" t="n">
-        <x:v>1049922</x:v>
+        <x:v>1084165</x:v>
       </x:c>
       <x:c r="DK4" s="4" t="n">
-        <x:v>1088427</x:v>
+        <x:v>1123625</x:v>
       </x:c>
       <x:c r="DL4" s="4" t="n">
-        <x:v>979902</x:v>
+        <x:v>1011769</x:v>
       </x:c>
       <x:c r="DM4" s="4" t="n">
-        <x:v>1059862</x:v>
+        <x:v>1094462</x:v>
       </x:c>
       <x:c r="DN4" s="4" t="n">
-        <x:v>991914</x:v>
+        <x:v>1024266</x:v>
       </x:c>
       <x:c r="DO4" s="4" t="n">
-        <x:v>1031592</x:v>
+        <x:v>1065163</x:v>
       </x:c>
       <x:c r="DP4" s="4" t="n">
-        <x:v>932262</x:v>
+        <x:v>962579</x:v>
       </x:c>
       <x:c r="DQ4" s="4" t="n">
-        <x:v>1045722</x:v>
+        <x:v>1079742</x:v>
       </x:c>
       <x:c r="DR4" s="4" t="n">
-        <x:v>1023090</x:v>
+        <x:v>1056458</x:v>
       </x:c>
       <x:c r="DS4" s="4" t="n">
-        <x:v>1087087</x:v>
+        <x:v>1122352</x:v>
       </x:c>
       <x:c r="DT4" s="4" t="n">
-        <x:v>995516</x:v>
+        <x:v>1027892</x:v>
       </x:c>
       <x:c r="DU4" s="4" t="n">
-        <x:v>1124513</x:v>
+        <x:v>1160991</x:v>
       </x:c>
       <x:c r="DV4" s="4" t="n">
-        <x:v>1077575</x:v>
+        <x:v>1112609</x:v>
       </x:c>
       <x:c r="DW4" s="4" t="n">
-        <x:v>1126114</x:v>
+        <x:v>1162760</x:v>
       </x:c>
       <x:c r="DX4" s="4" t="n">
-        <x:v>1033238</x:v>
+        <x:v>1066840</x:v>
       </x:c>
       <x:c r="DY4" s="4" t="n">
-        <x:v>1128984</x:v>
+        <x:v>1165608</x:v>
       </x:c>
       <x:c r="DZ4" s="4" t="n">
-        <x:v>1082087</x:v>
+        <x:v>1117155</x:v>
       </x:c>
       <x:c r="EA4" s="4" t="n">
-        <x:v>1129240</x:v>
+        <x:v>1166105</x:v>
       </x:c>
       <x:c r="EB4" s="4" t="n">
-        <x:v>1020332</x:v>
+        <x:v>1053620</x:v>
       </x:c>
       <x:c r="EC4" s="4" t="n">
-        <x:v>1122473</x:v>
+        <x:v>1159118</x:v>
       </x:c>
       <x:c r="ED4" s="4" t="n">
-        <x:v>1089674</x:v>
+        <x:v>1125213</x:v>
       </x:c>
       <x:c r="EE4" s="4" t="n">
-        <x:v>1134964</x:v>
+        <x:v>1171899</x:v>
       </x:c>
       <x:c r="EF4" s="4" t="n">
-        <x:v>1029635</x:v>
+        <x:v>1063120</x:v>
       </x:c>
       <x:c r="EG4" s="4" t="n">
-        <x:v>1151600</x:v>
+        <x:v>1189195</x:v>
       </x:c>
       <x:c r="EH4" s="4" t="n">
-        <x:v>1109559</x:v>
+        <x:v>1145747</x:v>
       </x:c>
       <x:c r="EI4" s="4" t="n">
-        <x:v>1167474</x:v>
+        <x:v>1205587</x:v>
       </x:c>
       <x:c r="EJ4" s="4" t="n">
-        <x:v>1060446</x:v>
+        <x:v>1094933</x:v>
       </x:c>
       <x:c r="EK4" s="4" t="n">
-        <x:v>1190645</x:v>
+        <x:v>1229515</x:v>
       </x:c>
       <x:c r="EL4" s="4" t="n">
-        <x:v>1149722</x:v>
+        <x:v>1187220</x:v>
       </x:c>
       <x:c r="EM4" s="4" t="n">
-        <x:v>1213848</x:v>
+        <x:v>1253348</x:v>
       </x:c>
       <x:c r="EN4" s="4" t="n">
-        <x:v>1108435</x:v>
+        <x:v>1144483</x:v>
       </x:c>
       <x:c r="EO4" s="4" t="n">
-        <x:v>1248783</x:v>
+        <x:v>1289410</x:v>
       </x:c>
       <x:c r="EP4" s="4" t="n">
-        <x:v>1183618</x:v>
+        <x:v>1222332</x:v>
       </x:c>
       <x:c r="EQ4" s="4" t="n">
-        <x:v>1240363</x:v>
+        <x:v>1280474</x:v>
       </x:c>
       <x:c r="ER4" s="4" t="n">
-        <x:v>1118093</x:v>
+        <x:v>1154455</x:v>
       </x:c>
       <x:c r="ES4" s="4" t="n">
-        <x:v>1265617</x:v>
+        <x:v>1306674</x:v>
       </x:c>
       <x:c r="ET4" s="4" t="n">
-        <x:v>1202862</x:v>
+        <x:v>1241845</x:v>
       </x:c>
       <x:c r="EU4" s="4" t="n">
-        <x:v>1278418</x:v>
+        <x:v>1320154</x:v>
       </x:c>
       <x:c r="EV4" s="4" t="n">
-        <x:v>1156966</x:v>
+        <x:v>1194712</x:v>
       </x:c>
       <x:c r="EW4" s="4" t="n">
-        <x:v>1304249</x:v>
+        <x:v>1346679</x:v>
       </x:c>
       <x:c r="EX4" s="4" t="n">
-        <x:v>1235539</x:v>
+        <x:v>1276356</x:v>
       </x:c>
       <x:c r="EY4" s="4" t="n">
-        <x:v>1311143</x:v>
+        <x:v>1354270</x:v>
       </x:c>
       <x:c r="EZ4" s="4" t="n">
-        <x:v>1164617</x:v>
+        <x:v>1202542</x:v>
       </x:c>
       <x:c r="FA4" s="4" t="n">
-        <x:v>1332423</x:v>
+        <x:v>1374880</x:v>
       </x:c>
       <x:c r="FB4" s="4" t="n">
-        <x:v>1265065</x:v>
+        <x:v>1303117</x:v>
       </x:c>
       <x:c r="FC4" s="4" t="n">
-        <x:v>1333607</x:v>
+        <x:v>1375143</x:v>
       </x:c>
       <x:c r="FD4" s="4" t="n">
-        <x:v>1194678</x:v>
+        <x:v>1233947</x:v>
       </x:c>
       <x:c r="FE4" s="4" t="n">
-        <x:v>1351651</x:v>
+        <x:v>1400454</x:v>
       </x:c>
       <x:c r="FF4" s="4" t="n">
-        <x:v>1265849</x:v>
+        <x:v>1315790</x:v>
       </x:c>
       <x:c r="FG4" s="4" t="n">
-        <x:v>1221800</x:v>
+        <x:v>1266885</x:v>
       </x:c>
       <x:c r="FH4" s="4" t="n">
-        <x:v>1170122</x:v>
+        <x:v>1221356</x:v>
       </x:c>
       <x:c r="FI4" s="4" t="n">
-        <x:v>1324500</x:v>
+        <x:v>1381321</x:v>
       </x:c>
       <x:c r="FJ4" s="4" t="n">
-        <x:v>1266521</x:v>
+        <x:v>1317066</x:v>
       </x:c>
       <x:c r="FK4" s="4" t="n">
-        <x:v>1335342</x:v>
+        <x:v>1389226</x:v>
       </x:c>
       <x:c r="FL4" s="4" t="n">
-        <x:v>1219482</x:v>
+        <x:v>1276131</x:v>
       </x:c>
       <x:c r="FM4" s="4" t="n">
-        <x:v>1393940</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:169">
+        <x:v>1462471</x:v>
+      </x:c>
+      <x:c r="FN4" s="4" t="n">
+        <x:v>1356858</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:170">
       <x:c r="A6" s="5" t="s">
-        <x:v>171</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:169">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:170">
       <x:c r="A7" s="5" t="s">
-        <x:v>172</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:169">
+        <x:v>173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:170">
       <x:c r="A8" s="5" t="s">
-        <x:v>173</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:169">
+        <x:v>174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:170">
       <x:c r="A10" s="0" t="s">
-        <x:v>174</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:169">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:170">
       <x:c r="A11" s="0" t="s">
-        <x:v>175</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:169">
+        <x:v>176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:170">
       <x:c r="A13" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:169">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:170">
       <x:c r="A14" s="0" t="s">
-        <x:v>177</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:169">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:170">
       <x:c r="A16" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:169">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:170">
       <x:c r="A17" s="0" t="s">
-        <x:v>179</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:169">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:170">
       <x:c r="A18" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:169">
+        <x:v>181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:170">
       <x:c r="A19" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:170">
+      <x:c r="A21" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:170">
+      <x:c r="A22" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:169">
-      <x:c r="A21" s="0" t="s">
-        <x:v>182</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:169">
-      <x:c r="A22" s="0" t="s">
-        <x:v>180</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:169">
+    <x:row r="23" spans="1:170">
       <x:c r="A23" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:169">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:170">
       <x:c r="A28" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:169">
+        <x:v>185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:170">
       <x:c r="A29" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:169">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:170">
       <x:c r="A31" s="0" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:169">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:170">
       <x:c r="A32" s="0" t="s">
-        <x:v>187</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:169">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:170">
       <x:c r="A34" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:169">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:170">
       <x:c r="A35" s="0" t="s">
-        <x:v>189</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:169">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:170">
       <x:c r="A38" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:169">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:170">
       <x:c r="A39" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:169">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:170">
       <x:c r="A42" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:169">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:170">
       <x:c r="A44" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:169">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:170">
       <x:c r="A45" s="0" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:169">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:170">
       <x:c r="A47" s="0" t="s">
-        <x:v>195</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:169">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:170">
       <x:c r="A48" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
-    <x:mergeCell ref="A6:FM6"/>
-    <x:mergeCell ref="A7:FM7"/>
-    <x:mergeCell ref="A8:FM8"/>
+    <x:mergeCell ref="A6:FN6"/>
+    <x:mergeCell ref="A7:FN7"/>
+    <x:mergeCell ref="A8:FN8"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
